--- a/Files/college_info/all_colleges/SNIS/SNIS_placements.xlsx
+++ b/Files/college_info/all_colleges/SNIS/SNIS_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\SNIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A3B54-8A15-4051-AA3A-1BCB05868725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99DDB82-1029-4DF5-A85B-E740EBF0E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F28B49F-F430-48D9-9856-EF5CEC6221ED}"/>
   </bookViews>
@@ -416,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,8 +436,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +456,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -474,11 +486,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,23 +531,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -530,30 +586,6 @@
           <color auto="1"/>
         </left>
         <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2200,16 +2232,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA1097CC-B11D-483E-9C70-F738C4DC337D}" name="Table1" displayName="Table1" ref="A1:D120" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA1097CC-B11D-483E-9C70-F738C4DC337D}" name="Table1" displayName="Table1" ref="A1:D120" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:D120" xr:uid="{DA1097CC-B11D-483E-9C70-F738C4DC337D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
     <sortCondition descending="1" ref="C1:C120"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9468A289-B27A-484A-8487-3DFC46C3EB9A}" name="Sl.No." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B970AACA-227C-420C-812D-7F9A90F8D680}" name="COMPANY" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{08D8725D-1C21-4788-A968-D1C237A9E370}" name="SALARY" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3A18EF25-6539-4122-BBE7-9FBAE3E7D5B3}" name="OFFERS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9468A289-B27A-484A-8487-3DFC46C3EB9A}" name="Sl.No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B970AACA-227C-420C-812D-7F9A90F8D680}" name="COMPANY" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{08D8725D-1C21-4788-A968-D1C237A9E370}" name="SALARY" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3A18EF25-6539-4122-BBE7-9FBAE3E7D5B3}" name="OFFERS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2512,1701 +2544,1705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E291E-B057-4349-8C80-6372503273D2}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
-        <v>3800000</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="8">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="7">
-        <v>1887300</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="8">
+        <v>18.87</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7">
-        <v>1800000</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="8">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7">
-        <v>1550000</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="8">
+        <v>15.5</v>
+      </c>
+      <c r="D5" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="7">
-        <v>1400000</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="8">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
-        <v>932934</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="8">
+        <v>9.33</v>
+      </c>
+      <c r="D11" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="7">
-        <v>919468</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="8">
+        <v>9.19</v>
+      </c>
+      <c r="D12" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7">
-        <v>900000</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="8">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="7">
-        <v>900000</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="8">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7">
-        <v>850000</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="D15" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="7">
-        <v>831493</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="8">
+        <v>8.31</v>
+      </c>
+      <c r="D16" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7">
-        <v>825000</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="D17" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
-        <v>800000</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="8">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="7">
-        <v>800000</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="8">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="7">
-        <v>800000</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="8">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="7">
-        <v>800000</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="8">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="15" thickBot="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="7">
-        <v>750000</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="7">
-        <v>750000</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D23" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="7">
-        <v>750000</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D24" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="7">
-        <v>719000</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="8">
+        <v>7.19</v>
+      </c>
+      <c r="D25" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="8">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="8">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="15" thickBot="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="8">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="15" thickBot="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="8">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="15" thickBot="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="7">
-        <v>700000</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="8">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="7">
-        <v>689000</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="8">
+        <v>6.89</v>
+      </c>
+      <c r="D32" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="15" thickBot="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="7">
-        <v>675000</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="8">
+        <v>6.75</v>
+      </c>
+      <c r="D33" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="15" thickBot="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7">
-        <v>656273</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="8">
+        <v>6.56</v>
+      </c>
+      <c r="D34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7">
-        <v>650000</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D35" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="15" thickBot="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="7">
-        <v>650000</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="7">
-        <v>630000</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="D37" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="15" thickBot="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="7">
-        <v>628000</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="8">
+        <v>6.28</v>
+      </c>
+      <c r="D38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="7">
-        <v>625000</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="D39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="15" thickBot="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="7">
-        <v>625000</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="D40" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="8">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="15" thickBot="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="8">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" s="8">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="15" thickBot="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="8">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="8">
+        <v>6</v>
+      </c>
+      <c r="D45" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="15" thickBot="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" s="8">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="8">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="15" thickBot="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" s="8">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" s="8">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="15" thickBot="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" s="8">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" s="8">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="15" thickBot="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52" s="8">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="7">
-        <v>600000</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" s="8">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="15" thickBot="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="7">
-        <v>576094</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="C54" s="8">
+        <v>5.76</v>
+      </c>
+      <c r="D54" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="7">
-        <v>570000</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="C55" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="D55" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="15" thickBot="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="7">
-        <v>560000</v>
-      </c>
-      <c r="D56" s="6">
+      <c r="C56" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="D56" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="7">
-        <v>555000</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57" s="8">
+        <v>5.55</v>
+      </c>
+      <c r="D57" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="15" thickBot="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="7">
-        <v>550000</v>
-      </c>
-      <c r="D58" s="6">
+      <c r="C58" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D58" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="7">
-        <v>550000</v>
-      </c>
-      <c r="D59" s="6">
+      <c r="C59" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D59" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="15" thickBot="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="7">
-        <v>550000</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="C60" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="7">
-        <v>540000</v>
-      </c>
-      <c r="D61" s="6">
+      <c r="C61" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="D61" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="15" thickBot="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="7">
-        <v>540000</v>
-      </c>
-      <c r="D62" s="6">
+      <c r="C62" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="D62" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="7">
-        <v>525000</v>
-      </c>
-      <c r="D63" s="6">
+      <c r="C63" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D63" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="15" thickBot="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="7">
-        <v>516654</v>
-      </c>
-      <c r="D64" s="6">
+      <c r="C64" s="8">
+        <v>5.17</v>
+      </c>
+      <c r="D64" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D65" s="6">
+      <c r="C65" s="8">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="15" thickBot="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D66" s="6">
+      <c r="C66" s="8">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D67" s="6">
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
+      <c r="D67" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="15" thickBot="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D68" s="6">
+      <c r="C68" s="8">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D69" s="6">
+      <c r="C69" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D70" s="6">
+      <c r="C70" s="8">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D71" s="6">
+      <c r="C71" s="8">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="15" thickBot="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="C72" s="8">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D73" s="6">
+      <c r="C73" s="8">
+        <v>5</v>
+      </c>
+      <c r="D73" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="15" thickBot="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D74" s="6">
+      <c r="C74" s="8">
+        <v>5</v>
+      </c>
+      <c r="D74" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D75" s="6">
+      <c r="C75" s="8">
+        <v>5</v>
+      </c>
+      <c r="D75" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="15" thickBot="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D76" s="6">
+      <c r="C76" s="8">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D77" s="6">
+      <c r="C77" s="8">
+        <v>5</v>
+      </c>
+      <c r="D77" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="15" thickBot="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D78" s="6">
+      <c r="C78" s="8">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D79" s="6">
+      <c r="C79" s="8">
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="15" thickBot="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="7">
-        <v>500000</v>
-      </c>
-      <c r="D80" s="6">
+      <c r="C80" s="8">
+        <v>5</v>
+      </c>
+      <c r="D80" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D81" s="6">
+      <c r="C81" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D81" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="15" thickBot="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="C82" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D82" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C83" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D83" s="6">
+      <c r="C83" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D83" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="15" thickBot="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D84" s="6">
+      <c r="C84" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D84" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D85" s="6">
+      <c r="C85" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D85" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="15" thickBot="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="7">
-        <v>450000</v>
-      </c>
-      <c r="D86" s="6">
+      <c r="C86" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D86" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="7">
-        <v>442000</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="C87" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="D87" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="15" thickBot="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="7">
-        <v>440000</v>
-      </c>
-      <c r="D88" s="6">
+      <c r="C88" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D88" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="7">
-        <v>425000</v>
-      </c>
-      <c r="D89" s="6">
+      <c r="C89" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="D89" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="15" thickBot="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="7">
-        <v>425000</v>
-      </c>
-      <c r="D90" s="6">
+      <c r="C90" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="D90" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="7">
-        <v>420000</v>
-      </c>
-      <c r="D91" s="6">
+      <c r="C91" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="D91" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="15" thickBot="1">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="7">
-        <v>420000</v>
-      </c>
-      <c r="D92" s="6">
+      <c r="C92" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="D92" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="7">
-        <v>420000</v>
-      </c>
-      <c r="D93" s="6">
+      <c r="C93" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="D93" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="15" thickBot="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D94" s="6">
+      <c r="C94" s="8">
+        <v>4</v>
+      </c>
+      <c r="D94" s="5">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D95" s="6">
+      <c r="C95" s="8">
+        <v>4</v>
+      </c>
+      <c r="D95" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="15" thickBot="1">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D96" s="6">
+      <c r="C96" s="8">
+        <v>4</v>
+      </c>
+      <c r="D96" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D97" s="6">
+      <c r="C97" s="8">
+        <v>4</v>
+      </c>
+      <c r="D97" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" thickBot="1">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D98" s="6">
+      <c r="C98" s="8">
+        <v>4</v>
+      </c>
+      <c r="D98" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D99" s="6">
+      <c r="C99" s="8">
+        <v>4</v>
+      </c>
+      <c r="D99" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="15" thickBot="1">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D100" s="6">
+      <c r="C100" s="8">
+        <v>4</v>
+      </c>
+      <c r="D100" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D101" s="6">
+      <c r="C101" s="8">
+        <v>4</v>
+      </c>
+      <c r="D101" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="15" thickBot="1">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="7">
-        <v>397156</v>
-      </c>
-      <c r="D102" s="6">
+      <c r="C102" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="D102" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="15" thickBot="1">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C103" s="7">
-        <v>360000</v>
-      </c>
-      <c r="D103" s="6">
+      <c r="C103" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D103" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="15" thickBot="1">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="7">
-        <v>360000</v>
-      </c>
-      <c r="D104" s="6">
+      <c r="C104" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D104" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="15" thickBot="1">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="7">
-        <v>360000</v>
-      </c>
-      <c r="D105" s="6">
+      <c r="C105" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D105" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="15" thickBot="1">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C106" s="7">
-        <v>360000</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="C106" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D106" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="15" thickBot="1">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="7">
-        <v>350100</v>
-      </c>
-      <c r="D107" s="6">
+      <c r="C107" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D107" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="15" thickBot="1">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D108" s="6">
+      <c r="C108" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D108" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" ht="15" thickBot="1">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D109" s="6">
+      <c r="C109" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D109" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D110" s="6">
+      <c r="C110" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D110" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="15" thickBot="1">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D111" s="6">
+      <c r="C111" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D111" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C112" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D112" s="6">
+      <c r="C112" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D112" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="15" thickBot="1">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C113" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D113" s="6">
+      <c r="C113" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D113" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="15" thickBot="1">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="7">
-        <v>350000</v>
-      </c>
-      <c r="D114" s="6">
+      <c r="C114" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D114" s="5">
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="15" thickBot="1">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="7">
-        <v>336000</v>
-      </c>
-      <c r="D115" s="6">
+      <c r="C115" s="8">
+        <v>3.36</v>
+      </c>
+      <c r="D115" s="5">
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="15" thickBot="1">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="7">
-        <v>320000</v>
-      </c>
-      <c r="D116" s="6">
+      <c r="C116" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="D116" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="15" thickBot="1">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="7">
-        <v>300000</v>
-      </c>
-      <c r="D117" s="6">
+      <c r="C117" s="8">
+        <v>3</v>
+      </c>
+      <c r="D117" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="15" thickBot="1">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C118" s="7">
-        <v>300000</v>
-      </c>
-      <c r="D118" s="6">
+      <c r="C118" s="8">
+        <v>3</v>
+      </c>
+      <c r="D118" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="15" thickBot="1">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="7">
-        <v>300000</v>
-      </c>
-      <c r="D119" s="6">
+      <c r="C119" s="8">
+        <v>3</v>
+      </c>
+      <c r="D119" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="15" thickBot="1">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C120" s="7">
-        <v>300000</v>
-      </c>
-      <c r="D120" s="6">
+      <c r="C120" s="8">
+        <v>3</v>
+      </c>
+      <c r="D120" s="5">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
